--- a/teste2.xlsx
+++ b/teste2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,127 +457,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Andre Cencin-7361</t>
+          <t>Adriano Mazanatti-135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44964</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Carla Sobreira Umino-390</t>
+          <t>Alvaro Antonio Mussa Pereira-69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44964</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-1</t>
+          <t>Arnold Strass-468</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44298</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-1</t>
+          <t>Cleber da Silva Melo-197</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44305</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-3</t>
+          <t>Detran MG-301</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44383</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-3</t>
+          <t>Detran MG-391</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44377</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-5</t>
+          <t>Detran PI-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44427</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copasa Leiloes-5</t>
+          <t>Detran RN-VEI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44433</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DER SP-3758</t>
+          <t>Detran RS-161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44964</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daniel dos Santos Oliveira-3758</t>
+          <t>Detran RS-162</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -601,58 +601,58 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44964</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3270</t>
+          <t>Detran SP-135</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44960</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3336</t>
+          <t>Detran SP-50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44960</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3344</t>
+          <t>Erico Lages Soares-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44960</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3345</t>
+          <t>Francisco Doege Esteves Filho-VEI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -661,88 +661,88 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44960</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joao Emilio de Oliveira Filho-3367</t>
+          <t>Gerson Atagi Ceglio-962</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44960</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23451</t>
+          <t>Gerson Atagi Ceglio-962</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44957</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23452</t>
+          <t>Joacir Monzon Pouey-239</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44957</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jose Eduardo de Abreu Sodre Santoro-23454</t>
+          <t>Joao Emilio de Oliveira Filho-3404</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44960</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Josecelli Kildare Fraga Gomes-2314</t>
+          <t>Jorge Erli Ritta-161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44960</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luiz Fernando de Abreu Sodre Santoro-23434</t>
+          <t>Jorge Erli Ritta-162</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -751,52 +751,307 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44961</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luiz Fernando de Abreu Sodre Santoro-23449</t>
+          <t>Jose Lazaro Ribeiro Menezes Junior-64</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44960</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paulo Eduardo Lopes Rodrigues de Souza-1607</t>
+          <t>Katia Alves Soares-567</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44959</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sandra de Fatima Santos-141</t>
+          <t>Leilo Master-3139</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sem OBS</t>
+          <t>com OBS</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44959</v>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Leilo Master-3141</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Leilo Master-3142</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Leilo Master-3154</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Liliamar Fatima Parmeggiani Pestana Marques Gomes-3737</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23588</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23630</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23631</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23633</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23636</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23645</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Luiz Fernando de Abreu Sodre Santoro-23650</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Luiz Odair Favareto-1383</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MaisAtivo Intermediacao de Ativos Ltda-108790</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>44961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MaisAtivo Intermediacao de Ativos Ltda-108790</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Prefeitura Municipal de Novo Hamburgo RS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Roberto Tadeu Gabriel-50</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rogerio Menezes Nunes-863</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>com OBS</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45000</v>
       </c>
     </row>
   </sheetData>
